--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_sou.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_sou.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC69E553-AAD0-4BF2-A1E7-94E6F78166BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14580" windowHeight="9990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
     <sheet name="Continuation" sheetId="3" r:id="rId2"/>
     <sheet name="Index" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,18 +115,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -120,346 +130,16 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -482,251 +162,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -740,61 +178,17 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1052,21 +446,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1098,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1106,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>175.705</v>
+        <v>175.70500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1114,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20.847</v>
+        <v>20.847000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1138,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1178,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1186,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2437.309</v>
+        <v>2437.3090000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1194,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>258.949</v>
+        <v>258.94900000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1221,33 +615,31 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="20" ht="29.25" spans="1:2">
+    <row r="20" spans="1:2" ht="28.8">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <f>10^(-7)</f>
-        <v>1e-7</v>
+        <f>2*10^(-8)</f>
+        <v>2E-8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -1415,25 +807,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.775" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" spans="1:5">
       <c r="D1" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +858,7 @@
         <v>costff</v>
       </c>
       <c r="C3" t="str">
-        <f>IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
+        <f ca="1">IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B1</v>
       </c>
       <c r="D3">
@@ -1490,7 +880,7 @@
         <v>costre</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C4:C67" ca="1" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B2</v>
       </c>
       <c r="D4">
@@ -1512,7 +902,7 @@
         <v>dep</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B3</v>
       </c>
       <c r="D5">
@@ -1534,7 +924,7 @@
         <v>r</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B4</v>
       </c>
       <c r="D6">
@@ -1556,7 +946,7 @@
         <v>kff0</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B5</v>
       </c>
       <c r="D7">
@@ -1578,7 +968,7 @@
         <v>kre0</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B6</v>
       </c>
       <c r="D8">
@@ -1600,7 +990,7 @@
         <v>aff</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B7</v>
       </c>
       <c r="D9">
@@ -1622,7 +1012,7 @@
         <v>taxlim</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B8</v>
       </c>
       <c r="D10">
@@ -1644,7 +1034,7 @@
         <v>tfp1</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B9</v>
       </c>
       <c r="D11">
@@ -1666,7 +1056,7 @@
         <v>phi</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B10</v>
       </c>
       <c r="D12">
@@ -1688,7 +1078,7 @@
         <v>fertsh</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B11</v>
       </c>
       <c r="D13">
@@ -1710,7 +1100,7 @@
         <v>bk</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B12</v>
       </c>
       <c r="D14">
@@ -1732,7 +1122,7 @@
         <v>bkf</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B13</v>
       </c>
       <c r="D15">
@@ -1754,7 +1144,7 @@
         <v>ben</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B14</v>
       </c>
       <c r="D16">
@@ -1776,7 +1166,7 @@
         <v>k0</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B15</v>
       </c>
       <c r="D17">
@@ -1798,7 +1188,7 @@
         <v>kf0</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B16</v>
       </c>
       <c r="D18">
@@ -1820,7 +1210,7 @@
         <v>debtqlim</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B17</v>
       </c>
       <c r="D19">
@@ -1842,7 +1232,7 @@
         <v>gcostsh</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B18</v>
       </c>
       <c r="D20">
@@ -1864,7 +1254,7 @@
         <v>pubgdpsh</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B19</v>
       </c>
       <c r="D21">
@@ -1886,7 +1276,7 @@
         <v>lowerbound</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B20</v>
       </c>
       <c r="D22">
@@ -1908,7 +1298,7 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D23" t="str">
@@ -1930,7 +1320,7 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D24" t="str">
@@ -1952,7 +1342,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D25" t="str">
@@ -1974,7 +1364,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -1996,7 +1386,7 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -2018,7 +1408,7 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D28" t="str">
@@ -2040,7 +1430,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D29" t="str">
@@ -2062,7 +1452,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -2084,7 +1474,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D31" t="str">
@@ -2106,7 +1496,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D32" t="str">
@@ -2128,7 +1518,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D33" t="str">
@@ -2150,7 +1540,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -2172,7 +1562,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D35" t="str">
@@ -2194,7 +1584,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D36" t="str">
@@ -2216,7 +1606,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -2238,7 +1628,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D38" t="str">
@@ -2260,7 +1650,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D39" t="str">
@@ -2282,7 +1672,7 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -2304,7 +1694,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D41" t="str">
@@ -2326,7 +1716,7 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -2348,7 +1738,7 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D43" t="str">
@@ -2370,7 +1760,7 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D44" t="str">
@@ -2392,7 +1782,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -2414,7 +1804,7 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D46" t="str">
@@ -2436,7 +1826,7 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D47" t="str">
@@ -2458,7 +1848,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D48" t="str">
@@ -2480,7 +1870,7 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D49" t="str">
@@ -2502,7 +1892,7 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D50" t="str">
@@ -2524,7 +1914,7 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D51" t="str">
@@ -2546,7 +1936,7 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D52" t="str">
@@ -2568,7 +1958,7 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D53" t="str">
@@ -2590,7 +1980,7 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D54" t="str">
@@ -2612,7 +2002,7 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D55" t="str">
@@ -2634,7 +2024,7 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D56" t="str">
@@ -2656,7 +2046,7 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D57" t="str">
@@ -2678,7 +2068,7 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D58" t="str">
@@ -2700,7 +2090,7 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D59" t="str">
@@ -2722,7 +2112,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D60" t="str">
@@ -2744,7 +2134,7 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D61" t="str">
@@ -2766,7 +2156,7 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D62" t="str">
@@ -2788,7 +2178,7 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D63" t="str">
@@ -2810,7 +2200,7 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D64" t="str">
@@ -2832,7 +2222,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D65" t="str">
@@ -2854,7 +2244,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D66" t="str">
@@ -2876,7 +2266,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D67" t="str">
@@ -2898,7 +2288,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C101" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C68:C101" ca="1" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
         <v/>
       </c>
       <c r="D68" t="str">
@@ -2920,7 +2310,7 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D69" t="str">
@@ -2942,7 +2332,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D70" t="str">
@@ -2964,7 +2354,7 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D71" t="str">
@@ -2986,7 +2376,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D72" t="str">
@@ -3008,7 +2398,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D73" t="str">
@@ -3030,7 +2420,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D74" t="str">
@@ -3052,7 +2442,7 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D75" t="str">
@@ -3074,7 +2464,7 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D76" t="str">
@@ -3096,7 +2486,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D77" t="str">
@@ -3118,7 +2508,7 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D78" t="str">
@@ -3140,7 +2530,7 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D79" t="str">
@@ -3162,7 +2552,7 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D80" t="str">
@@ -3184,7 +2574,7 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D81" t="str">
@@ -3206,7 +2596,7 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D82" t="str">
@@ -3228,7 +2618,7 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D83" t="str">
@@ -3250,7 +2640,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D84" t="str">
@@ -3272,7 +2662,7 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D85" t="str">
@@ -3294,7 +2684,7 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D86" t="str">
@@ -3316,7 +2706,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D87" t="str">
@@ -3338,7 +2728,7 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D88" t="str">
@@ -3360,7 +2750,7 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D89" t="str">
@@ -3382,7 +2772,7 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D90" t="str">
@@ -3404,7 +2794,7 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D91" t="str">
@@ -3426,7 +2816,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D92" t="str">
@@ -3448,7 +2838,7 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D93" t="str">
@@ -3470,7 +2860,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D94" t="str">
@@ -3492,7 +2882,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D95" t="str">
@@ -3514,7 +2904,7 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D96" t="str">
@@ -3536,7 +2926,7 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D97" t="str">
@@ -3558,7 +2948,7 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D98" t="str">
@@ -3580,7 +2970,7 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D99" t="str">
@@ -3602,7 +2992,7 @@
         <v/>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D100" t="str">
@@ -3624,7 +3014,7 @@
         <v/>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D101" t="str">
@@ -3638,6 +3028,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_sou.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_sou.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC69E553-AAD0-4BF2-A1E7-94E6F78166BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15780" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
     <sheet name="Continuation" sheetId="3" r:id="rId2"/>
     <sheet name="Index" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -115,12 +99,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -130,16 +120,346 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -162,9 +482,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -178,17 +740,61 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -446,21 +1052,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -492,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -500,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>175.70500000000001</v>
+        <v>175.705</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -508,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20.847000000000001</v>
+        <v>20.847</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.54300000000000004</v>
+        <v>1.948</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -572,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.19400000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -580,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2437.3090000000002</v>
+        <v>2437.309</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -588,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>258.94900000000001</v>
+        <v>258.949</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -615,31 +1221,33 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8">
+    <row r="20" ht="29.25" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <f>2*10^(-8)</f>
-        <v>2E-8</v>
+        <v>2e-8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -807,23 +1415,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="4:5">
       <c r="D1" t="s">
         <v>21</v>
       </c>
@@ -858,7 +1468,7 @@
         <v>costff</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
+        <f>IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B1</v>
       </c>
       <c r="D3">
@@ -880,7 +1490,7 @@
         <v>costre</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" ca="1" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C4:C67" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B2</v>
       </c>
       <c r="D4">
@@ -902,7 +1512,7 @@
         <v>dep</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B3</v>
       </c>
       <c r="D5">
@@ -924,7 +1534,7 @@
         <v>r</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B4</v>
       </c>
       <c r="D6">
@@ -946,7 +1556,7 @@
         <v>kff0</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B5</v>
       </c>
       <c r="D7">
@@ -968,7 +1578,7 @@
         <v>kre0</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B6</v>
       </c>
       <c r="D8">
@@ -990,7 +1600,7 @@
         <v>aff</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B7</v>
       </c>
       <c r="D9">
@@ -1012,7 +1622,7 @@
         <v>taxlim</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B8</v>
       </c>
       <c r="D10">
@@ -1034,7 +1644,7 @@
         <v>tfp1</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B9</v>
       </c>
       <c r="D11">
@@ -1056,7 +1666,7 @@
         <v>phi</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B10</v>
       </c>
       <c r="D12">
@@ -1078,7 +1688,7 @@
         <v>fertsh</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B11</v>
       </c>
       <c r="D13">
@@ -1100,7 +1710,7 @@
         <v>bk</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B12</v>
       </c>
       <c r="D14">
@@ -1122,7 +1732,7 @@
         <v>bkf</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B13</v>
       </c>
       <c r="D15">
@@ -1144,7 +1754,7 @@
         <v>ben</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B14</v>
       </c>
       <c r="D16">
@@ -1166,7 +1776,7 @@
         <v>k0</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B15</v>
       </c>
       <c r="D17">
@@ -1188,7 +1798,7 @@
         <v>kf0</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B16</v>
       </c>
       <c r="D18">
@@ -1210,7 +1820,7 @@
         <v>debtqlim</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B17</v>
       </c>
       <c r="D19">
@@ -1232,7 +1842,7 @@
         <v>gcostsh</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B18</v>
       </c>
       <c r="D20">
@@ -1254,7 +1864,7 @@
         <v>pubgdpsh</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B19</v>
       </c>
       <c r="D21">
@@ -1276,7 +1886,7 @@
         <v>lowerbound</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B20</v>
       </c>
       <c r="D22">
@@ -1298,7 +1908,7 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D23" t="str">
@@ -1320,7 +1930,7 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D24" t="str">
@@ -1342,7 +1952,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D25" t="str">
@@ -1364,7 +1974,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -1386,7 +1996,7 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -1408,7 +2018,7 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D28" t="str">
@@ -1430,7 +2040,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D29" t="str">
@@ -1452,7 +2062,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -1474,7 +2084,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D31" t="str">
@@ -1496,7 +2106,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D32" t="str">
@@ -1518,7 +2128,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D33" t="str">
@@ -1540,7 +2150,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -1562,7 +2172,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D35" t="str">
@@ -1584,7 +2194,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D36" t="str">
@@ -1606,7 +2216,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -1628,7 +2238,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D38" t="str">
@@ -1650,7 +2260,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D39" t="str">
@@ -1672,7 +2282,7 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -1694,7 +2304,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D41" t="str">
@@ -1716,7 +2326,7 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -1738,7 +2348,7 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D43" t="str">
@@ -1760,7 +2370,7 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D44" t="str">
@@ -1782,7 +2392,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -1804,7 +2414,7 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D46" t="str">
@@ -1826,7 +2436,7 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D47" t="str">
@@ -1848,7 +2458,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D48" t="str">
@@ -1870,7 +2480,7 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D49" t="str">
@@ -1892,7 +2502,7 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D50" t="str">
@@ -1914,7 +2524,7 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D51" t="str">
@@ -1936,7 +2546,7 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D52" t="str">
@@ -1958,7 +2568,7 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D53" t="str">
@@ -1980,7 +2590,7 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D54" t="str">
@@ -2002,7 +2612,7 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D55" t="str">
@@ -2024,7 +2634,7 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D56" t="str">
@@ -2046,7 +2656,7 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D57" t="str">
@@ -2068,7 +2678,7 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D58" t="str">
@@ -2090,7 +2700,7 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D59" t="str">
@@ -2112,7 +2722,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D60" t="str">
@@ -2134,7 +2744,7 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D61" t="str">
@@ -2156,7 +2766,7 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D62" t="str">
@@ -2178,7 +2788,7 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D63" t="str">
@@ -2200,7 +2810,7 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D64" t="str">
@@ -2222,7 +2832,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D65" t="str">
@@ -2244,7 +2854,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D66" t="str">
@@ -2266,7 +2876,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D67" t="str">
@@ -2288,7 +2898,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C101" ca="1" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C68:C101" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
         <v/>
       </c>
       <c r="D68" t="str">
@@ -2310,7 +2920,7 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D69" t="str">
@@ -2332,7 +2942,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D70" t="str">
@@ -2354,7 +2964,7 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D71" t="str">
@@ -2376,7 +2986,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D72" t="str">
@@ -2398,7 +3008,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D73" t="str">
@@ -2420,7 +3030,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D74" t="str">
@@ -2442,7 +3052,7 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D75" t="str">
@@ -2464,7 +3074,7 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D76" t="str">
@@ -2486,7 +3096,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D77" t="str">
@@ -2508,7 +3118,7 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D78" t="str">
@@ -2530,7 +3140,7 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D79" t="str">
@@ -2552,7 +3162,7 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D80" t="str">
@@ -2574,7 +3184,7 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D81" t="str">
@@ -2596,7 +3206,7 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D82" t="str">
@@ -2618,7 +3228,7 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D83" t="str">
@@ -2640,7 +3250,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D84" t="str">
@@ -2662,7 +3272,7 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D85" t="str">
@@ -2684,7 +3294,7 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D86" t="str">
@@ -2706,7 +3316,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D87" t="str">
@@ -2728,7 +3338,7 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D88" t="str">
@@ -2750,7 +3360,7 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D89" t="str">
@@ -2772,7 +3382,7 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D90" t="str">
@@ -2794,7 +3404,7 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D91" t="str">
@@ -2816,7 +3426,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D92" t="str">
@@ -2838,7 +3448,7 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D93" t="str">
@@ -2860,7 +3470,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D94" t="str">
@@ -2882,7 +3492,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D95" t="str">
@@ -2904,7 +3514,7 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D96" t="str">
@@ -2926,7 +3536,7 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D97" t="str">
@@ -2948,7 +3558,7 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D98" t="str">
@@ -2970,7 +3580,7 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D99" t="str">
@@ -2992,7 +3602,7 @@
         <v/>
       </c>
       <c r="C100" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D100" t="str">
@@ -3014,7 +3624,7 @@
         <v/>
       </c>
       <c r="C101" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D101" t="str">
@@ -3028,5 +3638,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>